--- a/Documentacion/Notas y Calificaciones.xlsx
+++ b/Documentacion/Notas y Calificaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Estudio\Universidad\Semestre 6\Procesos Estocásticos\Proyecto Final\Proyecto Final Procesos Estocasticos\Proyecto-Final-Procesos-Estocasticos\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EB1C0F-2386-454D-A0D6-AF5C6C8C1CF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C9C16D-3AC8-4C36-91CA-96174A23918B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{560D5F29-6898-4D8C-9538-F57E513DE4A8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="56">
   <si>
     <t xml:space="preserve">Sistema de calificación proyecto final procesos estocásticos </t>
   </si>
@@ -171,6 +171,33 @@
   </si>
   <si>
     <t>Proceso de Diseño</t>
+  </si>
+  <si>
+    <t>Juego 7 &amp; 8</t>
+  </si>
+  <si>
+    <t>Juego 5</t>
+  </si>
+  <si>
+    <t>Juego 6</t>
+  </si>
+  <si>
+    <t>Juego 4</t>
+  </si>
+  <si>
+    <t>Juego 2</t>
+  </si>
+  <si>
+    <t>Juego 1</t>
+  </si>
+  <si>
+    <t>Juego 3</t>
+  </si>
+  <si>
+    <t>Diseñador de interface</t>
+  </si>
+  <si>
+    <t>Desarrollo de Base de Datos</t>
   </si>
 </sst>
 </file>
@@ -274,6 +301,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -281,9 +311,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -602,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FBFD64-6CA2-4D32-AFD9-F0B46A47D62C}">
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:F17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,94 +649,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
     </row>
     <row r="2" spans="1:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12" t="s">
+      <c r="R2" s="13"/>
+      <c r="S2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12" t="s">
+      <c r="T2" s="13"/>
+      <c r="U2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12" t="s">
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
@@ -734,12 +761,12 @@
       <c r="N3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
       <c r="U3" s="3" t="s">
         <v>14</v>
       </c>
@@ -766,36 +793,38 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12">
         <v>400081</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="12"/>
       <c r="J4" s="1" t="s">
         <v>42</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
       <c r="X4" s="7">
-        <f>SUMIF(G4:N4,"X",G$19:N$19)/1.6</f>
+        <f t="shared" ref="X4:X18" si="0">SUMIF(G4:N4,"X",G$19:N$19)/1.6</f>
         <v>1.25</v>
       </c>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8">
-        <f>SUMIF(U4:W4,"X",U$19:W$19)*1.65</f>
+        <f t="shared" ref="AA4:AA18" si="1">SUMIF(U4:W4,"X",U$19:W$19)*1.65</f>
         <v>0</v>
       </c>
       <c r="AB4" s="8">
@@ -804,508 +833,538 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12">
         <v>135166</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="12"/>
       <c r="J5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
       <c r="X5" s="7">
-        <f>SUMIF(G5:N5,"X",G$19:N$19)/1.6</f>
+        <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
       <c r="AA5" s="8">
-        <f>SUMIF(U5:W5,"X",U$19:W$19)*1.65</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB5" s="8">
-        <f t="shared" ref="AB5:AB18" si="0">(X5*20%)+(Y5*20%)+(Z5*40%)+(AA5*20%)</f>
+        <f t="shared" ref="AB5:AB18" si="2">(X5*20%)+(Y5*20%)+(Z5*40%)+(AA5*20%)</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12">
         <v>60928</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="12"/>
       <c r="J6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
       <c r="X6" s="7">
-        <f>SUMIF(G6:N6,"X",G$19:N$19)/1.6</f>
+        <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
       <c r="AA6" s="8">
-        <f>SUMIF(U6:W6,"X",U$19:W$19)*1.65</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB6" s="8">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12">
+        <v>85476</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="X7" s="7">
         <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="AA7" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="8">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="J7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="X7" s="7">
-        <f>SUMIF(G7:N7,"X",G$19:N$19)/1.6</f>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12">
+        <v>368773</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="J8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="X8" s="7">
+        <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="AA7" s="8">
-        <f>SUMIF(U7:W7,"X",U$19:W$19)*1.65</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="8">
+      <c r="AA8" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="8">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12">
+        <v>403582</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="J9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="X9" s="7">
         <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="AA9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="8">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11">
-        <v>368773</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="J8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="X8" s="7">
-        <f>SUMIF(G8:N8,"X",G$19:N$19)/1.6</f>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12">
+        <v>395913</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="X10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12">
+        <v>138586</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="J11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="X11" s="7">
+        <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="AA8" s="8">
-        <f>SUMIF(U8:W8,"X",U$19:W$19)*1.65</f>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="8">
+      <c r="AA11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="8">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12">
+        <v>367409</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="J12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="X12" s="7">
         <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="AA12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="8">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11">
-        <v>403582</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="J9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="X9" s="7">
-        <f>SUMIF(G9:N9,"X",G$19:N$19)/1.6</f>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12">
+        <v>373198</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="J13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="X13" s="7">
+        <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="AA9" s="8">
-        <f>SUMIF(U9:W9,"X",U$19:W$19)*1.65</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="8">
+      <c r="AA13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="8">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12">
+        <v>318733</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="J14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="X14" s="7">
         <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="AA14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="8">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11">
-        <v>395913</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="X10" s="7">
-        <f>SUMIF(G10:N10,"X",G$19:N$19)/1.6</f>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="8">
-        <f>SUMIF(U10:W10,"X",U$19:W$19)*1.65</f>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="8">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12">
+        <v>86303</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="J15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="X15" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11">
-        <v>138586</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="J11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="X11" s="7">
-        <f>SUMIF(G11:N11,"X",G$19:N$19)/1.6</f>
         <v>1.25</v>
       </c>
-      <c r="AA11" s="8">
-        <f>SUMIF(U11:W11,"X",U$19:W$19)*1.65</f>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="8">
+      <c r="AA15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="8">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12">
+        <v>362399</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="J16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="X16" s="7">
         <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="AA16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="8">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11">
-        <v>367409</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="J12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="X12" s="7">
-        <f>SUMIF(G12:N12,"X",G$19:N$19)/1.6</f>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12">
+        <v>363928</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="J17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="X17" s="7">
+        <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="AA12" s="8">
-        <f>SUMIF(U12:W12,"X",U$19:W$19)*1.65</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="8">
+      <c r="AA17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="8">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12">
+        <v>343417</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="J18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="X18" s="7">
         <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="AA18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="8">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11">
-        <v>373198</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="J13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="X13" s="7">
-        <f>SUMIF(G13:N13,"X",G$19:N$19)/1.6</f>
-        <v>1.25</v>
-      </c>
-      <c r="AA13" s="8">
-        <f>SUMIF(U13:W13,"X",U$19:W$19)*1.65</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="8">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11">
-        <v>318733</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="J14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="X14" s="7">
-        <f>SUMIF(G14:N14,"X",G$19:N$19)/1.6</f>
-        <v>1.25</v>
-      </c>
-      <c r="AA14" s="8">
-        <f>SUMIF(U14:W14,"X",U$19:W$19)*1.65</f>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="8">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11">
-        <v>86303</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="J15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="X15" s="7">
-        <f>SUMIF(G15:N15,"X",G$19:N$19)/1.6</f>
-        <v>1.25</v>
-      </c>
-      <c r="AA15" s="8">
-        <f>SUMIF(U15:W15,"X",U$19:W$19)*1.65</f>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="8">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11">
-        <v>362399</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="J16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="X16" s="7">
-        <f>SUMIF(G16:N16,"X",G$19:N$19)/1.6</f>
-        <v>1.25</v>
-      </c>
-      <c r="AA16" s="8">
-        <f>SUMIF(U16:W16,"X",U$19:W$19)*1.65</f>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="8">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11">
-        <v>363928</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="J17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="X17" s="7">
-        <f>SUMIF(G17:N17,"X",G$19:N$19)/1.6</f>
-        <v>1.25</v>
-      </c>
-      <c r="AA17" s="8">
-        <f>SUMIF(U17:W17,"X",U$19:W$19)*1.65</f>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="8">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11">
-        <v>343417</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="J18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="X18" s="7">
-        <f>SUMIF(G18:N18,"X",G$19:N$19)/1.6</f>
-        <v>1.25</v>
-      </c>
-      <c r="AA18" s="8">
-        <f>SUMIF(U18:W18,"X",U$19:W$19)*1.65</f>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="8">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
     <row r="19" spans="1:29" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="6">
         <v>1</v>
       </c>
@@ -1330,12 +1389,12 @@
       <c r="N19" s="6">
         <v>1</v>
       </c>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
       <c r="U19" s="6">
         <v>1</v>
       </c>
@@ -1345,70 +1404,70 @@
       <c r="W19" s="6">
         <v>1</v>
       </c>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
       <c r="AC19" s="2"/>
     </row>
     <row r="20" spans="1:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12" t="s">
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12" t="s">
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12" t="s">
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12" t="s">
+      <c r="R20" s="13"/>
+      <c r="S20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12" t="s">
+      <c r="T20" s="13"/>
+      <c r="U20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12" t="s">
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
     </row>
     <row r="21" spans="1:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="9" t="s">
         <v>4</v>
       </c>
@@ -1433,12 +1492,12 @@
       <c r="N21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
       <c r="U21" s="9" t="s">
         <v>14</v>
       </c>
@@ -1465,29 +1524,51 @@
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12">
+        <v>365725</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="J22" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="K22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="N22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
       <c r="X22" s="7">
         <f>SUMIF(G22:N22,"X",G$19:N$19)/1.6</f>
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="AA22" s="8">
         <f>SUMIF(U22:W22,"X",U$19:W$19)*1.65</f>
@@ -1495,35 +1576,55 @@
       </c>
       <c r="AB22" s="8">
         <f>(X22*20%)+(Y22*20%)+(Z22*40%)+(AA22*20%)</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12">
         <v>318410</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="J23" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="K23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="N23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
       <c r="X23" s="7">
         <f>SUMIF(G23:N23,"X",G$19:N$19)/1.6</f>
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="AA23" s="8">
         <f>SUMIF(U23:W23,"X",U$19:W$19)*1.65</f>
@@ -1531,61 +1632,62 @@
       </c>
       <c r="AB23" s="8">
         <f>(X23*20%)+(Y23*20%)+(Z23*40%)+(AA23*20%)</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="S20:T21"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A1:AB1"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="S2:T3"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C22:D22"/>
@@ -1610,58 +1712,57 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="S2:T3"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="A2:B3"/>
     <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="S20:T21"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="X20:AB20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
